--- a/manuscript/model_assessment_v1.xlsx
+++ b/manuscript/model_assessment_v1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>Classes</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>RandomForest</t>
-  </si>
-  <si>
-    <t>knn3</t>
   </si>
   <si>
     <t>CANB</t>
@@ -142,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +148,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,21 +482,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -513,13 +513,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -534,22 +534,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.9</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="C3" s="3">
-        <v>0.9667</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E3" s="3">
-        <v>0.73329999999999995</v>
+        <v>0.5333</v>
       </c>
       <c r="F3" s="3">
         <v>0.76670000000000005</v>
       </c>
       <c r="G3" s="3">
-        <v>0.73329999999999995</v>
+        <v>0.5333</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -558,22 +558,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.125</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.125</v>
+        <v>0.29170000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="E4" s="3">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.41670000000000001</v>
-      </c>
       <c r="G4" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.85189999999999999</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="C5" s="3">
-        <v>0.85189999999999999</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0.92589999999999995</v>
       </c>
       <c r="G5" s="3">
-        <v>0.92589999999999995</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -605,14 +605,14 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -630,13 +630,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -644,22 +644,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
       </c>
       <c r="E9" s="3">
         <v>0.66669999999999996</v>
       </c>
       <c r="F9" s="3">
-        <v>0.76670000000000005</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="G9" s="3">
-        <v>0.73329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E10" s="3">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="3">
-        <v>0.45829999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="3">
         <v>0.125</v>
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="C11" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -715,14 +715,14 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -754,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>0.76670000000000005</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C15" s="3">
-        <v>0.83330000000000004</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E15" s="3">
         <v>0.6</v>
@@ -778,22 +778,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.29170000000000001</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>0.16667000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="3">
-        <v>0.41670000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="F16" s="3">
-        <v>0.5</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="G16" s="3">
-        <v>0.45829999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>0.88890000000000002</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -825,14 +825,14 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,22 +864,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C21" s="3">
-        <v>1</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E21" s="3">
-        <v>0.76670000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="F21" s="3">
-        <v>0.73329999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="G21" s="3">
-        <v>0.63329999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -888,19 +888,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>0.16669999999999999</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="3">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="F22" s="3">
-        <v>0.41670000000000001</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="G22" s="3">
         <v>0.375</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>0.92589999999999995</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0.92589999999999995</v>
       </c>
       <c r="G23" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -954,7 +954,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,21 +969,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1000,13 +1000,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1021,22 +1021,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.56859999999999999</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="C3" s="3">
-        <v>0.58819999999999995</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="E3" s="3">
-        <v>0.74509999999999998</v>
+        <v>0.7843</v>
       </c>
       <c r="F3" s="3">
-        <v>0.72550000000000003</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="G3" s="3">
-        <v>0.66669999999999996</v>
+        <v>0.7843</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -1045,22 +1045,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.94740000000000002</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="C4" s="3">
-        <v>0.94730000000000003</v>
+        <v>0.9123</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0.84209999999999996</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="F4" s="3">
-        <v>0.84209999999999996</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>0.85970000000000002</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1069,22 +1069,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.94440000000000002</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.96299999999999997</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.94440000000000002</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -1092,14 +1092,14 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>0.52939999999999998</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="C9" s="3">
-        <v>0.52939999999999998</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E9" s="3">
-        <v>0.82350000000000001</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="F9" s="3">
-        <v>0.74509999999999998</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="G9" s="3">
         <v>0.62749999999999995</v>
@@ -1155,22 +1155,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="E10" s="3">
         <v>0.78949999999999998</v>
       </c>
       <c r="F10" s="3">
-        <v>0.84209999999999996</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="G10" s="3">
-        <v>0.9123</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1179,22 +1179,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.88890000000000002</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.87039999999999995</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -1202,14 +1202,14 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1241,22 +1241,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>0.64710000000000001</v>
+        <v>0.7843</v>
       </c>
       <c r="C15" s="3">
-        <v>0.58819999999999995</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>0.72250000000000003</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="F15" s="3">
-        <v>0.76470000000000005</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="G15" s="3">
-        <v>0.76470000000000005</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1265,22 +1265,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.87719999999999998</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="C16" s="3">
-        <v>0.92979999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="E16" s="3">
-        <v>0.75439999999999996</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="F16" s="3">
-        <v>0.75439999999999996</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="G16" s="3">
-        <v>0.80700000000000005</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -1289,19 +1289,19 @@
         <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="C17" s="3">
-        <v>0.94440000000000002</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="G17" s="3">
         <v>0.92589999999999995</v>
@@ -1312,14 +1312,14 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,22 +1351,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>0.64710000000000001</v>
+        <v>0.7843</v>
       </c>
       <c r="C21" s="3">
-        <v>0.60780000000000001</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="E21" s="3">
-        <v>0.72250000000000003</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="F21" s="3">
-        <v>0.72550000000000003</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="G21" s="3">
-        <v>0.72550000000000003</v>
+        <v>0.70589999999999997</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1375,22 +1375,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="3">
-        <v>0.87719999999999998</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="C22" s="3">
-        <v>0.96489999999999998</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="E22" s="3">
-        <v>0.75439999999999996</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="F22" s="3">
-        <v>0.8246</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="G22" s="3">
-        <v>0.78949999999999998</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1399,22 +1399,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="C23" s="3">
-        <v>0.96299999999999997</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="G23" s="3">
-        <v>0.98150000000000004</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H23" s="3"/>
     </row>

--- a/manuscript/model_assessment_v1.xlsx
+++ b/manuscript/model_assessment_v1.xlsx
@@ -9,7 +9,12 @@
   <sheets>
     <sheet name="sensitivity" sheetId="1" r:id="rId1"/>
     <sheet name="specificity" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="OSCC_sen" sheetId="3" r:id="rId3"/>
+    <sheet name="OSCC_spe" sheetId="4" r:id="rId4"/>
+    <sheet name="normal_sen" sheetId="5" r:id="rId5"/>
+    <sheet name="normal_spe" sheetId="6" r:id="rId6"/>
+    <sheet name="olk_sen" sheetId="7" r:id="rId7"/>
+    <sheet name="olk_spe" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
   <si>
     <t>Classes</t>
   </si>
@@ -139,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +154,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -173,6 +184,2351 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_sen!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_sen!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85189999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_sen!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_sen!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_sen!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_sen!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_sen!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_sen!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="30547328"/>
+        <c:axId val="30565504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30547328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30565504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30565504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="30547328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_spe!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_spe!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_spe!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_spe!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_spe!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_spe!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88890000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_spe!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_spe!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_spe!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OSCC_spe!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>OSCC_spe!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OSCC_spe!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.87039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92589999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199441408"/>
+        <c:axId val="199443200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199441408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199443200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199443200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199441408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_sen!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_sen!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_sen!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_sen!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_sen!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_sen!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_sen!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_sen!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="197069440"/>
+        <c:axId val="197091712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="197069440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197091712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197091712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197069440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_spe!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_spe!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_spe!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_spe!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62749999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_spe!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_spe!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal_spe!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal_spe!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199506176"/>
+        <c:axId val="199512064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199506176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199512064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199512064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199506176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_sen!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_sen!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.45829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_sen!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_sen!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_sen!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_sen!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_sen!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_sen!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_sen!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.41670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199556096"/>
+        <c:axId val="199557888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199556096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199557888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199557888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199556096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_spe!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_spe!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.84209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70179999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_spe!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_spe!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96489999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_spe!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_spe!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>olk_spe!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>olk_spe!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NeuralNetwork</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NaiveBayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RegularizedRandomForest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>olk_spe!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.89470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77190000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="200742016"/>
+        <c:axId val="200743552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="200742016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200743552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200743552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="200742016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,7 +2821,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,21 +2838,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -605,14 +2961,14 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -715,14 +3071,14 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,14 +3181,14 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,7 +3310,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,21 +3325,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1092,14 +3448,14 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1202,14 +3558,14 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1312,14 +3668,14 @@
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,17 +3794,896 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5333</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5333</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.7843</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.7843</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.7843</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.7843</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.9123</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>